--- a/ressources/lab_location.xlsx
+++ b/ressources/lab_location.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSA\Documents\LABERCA\W4M\workflow4metabolomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSA\Documents\LABERCA\W4M\workflow4metabolomics\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>adress</t>
   </si>
@@ -77,9 +77,6 @@
     <t>lat</t>
   </si>
   <si>
-    <t>lon</t>
-  </si>
-  <si>
     <t xml:space="preserve">lab </t>
   </si>
   <si>
@@ -102,6 +99,18 @@
   </si>
   <si>
     <t>-1.52525</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>domaine</t>
+  </si>
+  <si>
+    <t>metabolomique</t>
+  </si>
+  <si>
+    <t>informatique</t>
   </si>
 </sst>
 </file>
@@ -421,10 +430,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,211 +442,238 @@
     <col min="2" max="2" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>44307</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>44307</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
         <v>44307</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
         <v>44307</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>44521</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
         <v>44521</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>44521</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
+      <c r="E9">
         <v>44521</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>44521</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>44521</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
